--- a/docs/external/plans/MISHKA_backlog.xlsx
+++ b/docs/external/plans/MISHKA_backlog.xlsx
@@ -964,17 +964,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1132,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>52</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>56</v>
       </c>
@@ -1951,15 +1951,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:F36">
-    <filterColumn colId="4">
-      <filters>
-        <dateGroupItem year="2013" month="11" dateTimeGrouping="month"/>
-        <dateGroupItem year="2013" month="12" day="3" dateTimeGrouping="day"/>
-        <dateGroupItem year="2013" month="12" day="10" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:F36"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>

--- a/docs/external/plans/MISHKA_backlog.xlsx
+++ b/docs/external/plans/MISHKA_backlog.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="15480" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Генплан" sheetId="1" r:id="rId1"/>
     <sheet name="Статус" sheetId="2" r:id="rId2"/>
+    <sheet name="Тестирование" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Генплан!$A$7:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Генплан!$A$7:$M$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Генплан!$A$7:$F$34</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="144">
   <si>
     <t>№</t>
   </si>
@@ -333,32 +334,7 @@
     <t>описание модели заказов</t>
   </si>
   <si>
-    <t>Ваня: прислать скорректированный файл 18.12
-Наташа: 19.12 замечания
-Ваня: 20.12 скорректировать</t>
-  </si>
-  <si>
-    <t>Наташа: ответы на вопросы 16.12
-Андрей: скорректировать 17.12</t>
-  </si>
-  <si>
-    <t>Дима:прислать на согласование 17.12
-Наташа: замечания 18.12
-Дима: 19.12 скорректировать</t>
-  </si>
-  <si>
-    <t>Дима: 18.12 прислать драфт
-Наташа: 20.12 замечания
-Дима: 23.12 скорректировать</t>
-  </si>
-  <si>
     <t>М-500</t>
-  </si>
-  <si>
-    <t>Наташа: отправить описание процесса гомо  16.12.13 
-Дима: выслать драфт на согласование, 23.12.2013
-Наташа: замечания 24.12.13
-Дима: корректировка 25.12</t>
   </si>
   <si>
     <t>сценарий тестирования алгоритма получения сырца</t>
@@ -366,9 +342,6 @@
   <si>
     <t>Дима: прислать сценарий тестирования 10.01
 Наташа: согласовать 10.01</t>
-  </si>
-  <si>
-    <t>Наташа: утвердить 16.12</t>
   </si>
   <si>
     <t>Дима: выслать версию на согласование, 23.12.2013
@@ -395,13 +368,6 @@
     <t>алгоритм инициализации расчета</t>
   </si>
   <si>
-    <t>Наташа: сценарии запуска и т.п. к 18.12
-Ваня: скорректировать 19.12</t>
-  </si>
-  <si>
-    <t>Наташа: утвердить текущую версию 16.12</t>
-  </si>
-  <si>
     <t>Наташа: 13.01. САЗ закончить</t>
   </si>
   <si>
@@ -418,6 +384,87 @@
   </si>
   <si>
     <t>Дима: направить драфт 23.12</t>
+  </si>
+  <si>
+    <t>Дима: выслать драфт на согласование, 23.12.2013
+Наташа: замечания 24.12.13
+Дима: корректировка 25.12</t>
+  </si>
+  <si>
+    <t>Наташа: утвердить 24.12</t>
+  </si>
+  <si>
+    <t>Наташа: замечания 23.12
+Дима: 24.12 скорректировать</t>
+  </si>
+  <si>
+    <t>Наташа: утвердить 25.12</t>
+  </si>
+  <si>
+    <t>Наташа: сценарии запуска и т.п. к 25.12
+Ваня: скорректировать 26.12</t>
+  </si>
+  <si>
+    <t>Наташа: утвердить текущую версию 24.12</t>
+  </si>
+  <si>
+    <t>Наташа: 25.12 замечания
+Ваня: 26.12 скорректировать</t>
+  </si>
+  <si>
+    <t>Наташа: замечания 25.12; 
+Андрей: поправить 26.12</t>
+  </si>
+  <si>
+    <t>Дима: выслать драфт 12.01</t>
+  </si>
+  <si>
+    <t>Дима: драфт 24.12</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>проверка адекватности расчетов по мат. Модели</t>
+  </si>
+  <si>
+    <t>проверка расписания, составленного литейщиком на наши ограничения</t>
+  </si>
+  <si>
+    <t>расчет целевой ф-и по двум расписаниям.</t>
+  </si>
+  <si>
+    <t>мат. Оптимизация расписания</t>
+  </si>
+  <si>
+    <t>чуствительность по параметрам</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>этап</t>
+  </si>
+  <si>
+    <t>коментарий</t>
+  </si>
+  <si>
+    <t>проверка адекватности учета параметров</t>
+  </si>
+  <si>
+    <t>при варьировании параметров поведение системы должно быть объяснимо</t>
   </si>
 </sst>
 </file>
@@ -482,7 +529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +575,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -815,6 +880,31 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1118,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF00B0F0"/>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1126,10 +1216,10 @@
   <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1236,8 @@
     <col min="10" max="10" width="21.5703125" style="14" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="11.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="55" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="55"/>
+    <col min="13" max="13" width="13.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="12" collapsed="1" x14ac:dyDescent="0.25">
@@ -1256,9 +1347,11 @@
       <c r="L7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="35"/>
-    </row>
-    <row r="8" spans="1:13" s="49" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="M7" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>14</v>
       </c>
@@ -1284,10 +1377,10 @@
         <v>0.9</v>
       </c>
       <c r="I8" s="11">
-        <v>41625</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>105</v>
+        <v>41635</v>
+      </c>
+      <c r="J8" s="67" t="s">
+        <v>122</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>50</v>
@@ -1296,9 +1389,11 @@
         <f>G8*H8</f>
         <v>18</v>
       </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="M8" s="69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>15</v>
       </c>
@@ -1324,10 +1419,10 @@
         <v>0.8</v>
       </c>
       <c r="I9" s="11">
-        <v>41627</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>106</v>
+        <v>41635</v>
+      </c>
+      <c r="J9" s="67" t="s">
+        <v>121</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>50</v>
@@ -1336,9 +1431,11 @@
         <f t="shared" ref="L9:L35" si="0">G9*H9</f>
         <v>4</v>
       </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" s="49" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="M9" s="70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>16</v>
       </c>
@@ -1364,10 +1461,10 @@
         <v>0.8</v>
       </c>
       <c r="I10" s="11">
-        <v>41625</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>105</v>
+        <v>41635</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>126</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>50</v>
@@ -1376,9 +1473,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="M10" s="69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>17</v>
       </c>
@@ -1404,10 +1503,10 @@
         <v>0.7</v>
       </c>
       <c r="I11" s="11">
-        <v>41628</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>104</v>
+        <v>41635</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>125</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>50</v>
@@ -1416,11 +1515,13 @@
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="M11" s="69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>1</v>
@@ -1444,10 +1545,10 @@
         <v>0.8</v>
       </c>
       <c r="I12" s="11">
-        <v>41631</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>107</v>
+        <v>41635</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>121</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>50</v>
@@ -1456,9 +1557,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" s="49" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="M12" s="70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>18</v>
       </c>
@@ -1484,10 +1587,10 @@
         <v>0.7</v>
       </c>
       <c r="I13" s="11">
-        <v>41633</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>109</v>
+        <v>41635</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>119</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>50</v>
@@ -1496,9 +1599,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="M13" s="69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>31</v>
       </c>
@@ -1506,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -1524,10 +1629,10 @@
         <v>0.2</v>
       </c>
       <c r="I14" s="12">
-        <v>41284</v>
+        <v>41649</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>51</v>
@@ -1564,10 +1669,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="11">
-        <v>41624</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>112</v>
+        <v>41635</v>
+      </c>
+      <c r="J15" s="67" t="s">
+        <v>120</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>50</v>
@@ -1576,9 +1681,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="M15" s="71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>33</v>
       </c>
@@ -1586,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -1604,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="12">
-        <v>41284</v>
+        <v>41649</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>51</v>
@@ -1644,10 +1751,10 @@
         <v>0.6</v>
       </c>
       <c r="I17" s="11">
-        <v>41633</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>113</v>
+        <v>41635</v>
+      </c>
+      <c r="J17" s="68" t="s">
+        <v>107</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>50</v>
@@ -1656,9 +1763,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="M17" s="70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>35</v>
       </c>
@@ -1687,7 +1796,7 @@
         <v>41670</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>63</v>
@@ -1726,8 +1835,8 @@
       <c r="I19" s="11">
         <v>41635</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>115</v>
+      <c r="J19" s="68" t="s">
+        <v>109</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>50</v>
@@ -1736,7 +1845,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" s="71" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="20" spans="1:13" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
@@ -1746,7 +1857,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
@@ -1764,10 +1875,10 @@
         <v>0.7</v>
       </c>
       <c r="I20" s="11">
-        <v>41631</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>116</v>
+        <v>41635</v>
+      </c>
+      <c r="J20" s="68" t="s">
+        <v>110</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>50</v>
@@ -1776,9 +1887,11 @@
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" s="59" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M20" s="69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="59" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
         <v>23</v>
       </c>
@@ -1786,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>3</v>
@@ -1816,7 +1929,7 @@
       </c>
       <c r="M21" s="29"/>
     </row>
-    <row r="22" spans="1:13" s="49" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="49" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>24</v>
       </c>
@@ -1842,10 +1955,10 @@
         <v>0.9</v>
       </c>
       <c r="I22" s="11">
-        <v>41627</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>119</v>
+        <v>41635</v>
+      </c>
+      <c r="J22" s="67" t="s">
+        <v>123</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>50</v>
@@ -1854,7 +1967,9 @@
         <f>G22*H22</f>
         <v>4.5</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" s="73" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="23" spans="1:13" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
@@ -1882,10 +1997,10 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="11">
-        <v>41633</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>120</v>
+        <v>41635</v>
+      </c>
+      <c r="J23" s="67" t="s">
+        <v>124</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>54</v>
@@ -1894,9 +2009,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M23" s="72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>43</v>
       </c>
@@ -1925,7 +2042,7 @@
         <v>41659</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>64</v>
@@ -1936,7 +2053,7 @@
       </c>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>44</v>
       </c>
@@ -1944,7 +2061,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
@@ -1961,8 +2078,12 @@
       <c r="H25" s="47">
         <v>0</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="I25" s="11">
+        <v>41654</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="K25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1972,7 +2093,7 @@
       </c>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>45</v>
       </c>
@@ -1980,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
@@ -1997,8 +2118,12 @@
       <c r="H26" s="47">
         <v>0</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="I26" s="11">
+        <v>41635</v>
+      </c>
+      <c r="J26" s="68" t="s">
+        <v>128</v>
+      </c>
       <c r="K26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2006,9 +2131,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M26" s="73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="49" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>25</v>
       </c>
@@ -2034,9 +2161,9 @@
         <v>0.9</v>
       </c>
       <c r="I27" s="11">
-        <v>41625</v>
-      </c>
-      <c r="J27" s="11" t="s">
+        <v>41635</v>
+      </c>
+      <c r="J27" s="68" t="s">
         <v>102</v>
       </c>
       <c r="K27" s="2" t="s">
@@ -2046,7 +2173,9 @@
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" s="73" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="28" spans="1:13" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
@@ -2074,10 +2203,10 @@
         <v>0.8</v>
       </c>
       <c r="I28" s="11">
-        <v>41633</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>126</v>
+        <v>41635</v>
+      </c>
+      <c r="J28" s="68" t="s">
+        <v>118</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>66</v>
@@ -2086,9 +2215,11 @@
         <f t="shared" si="0"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M28" s="69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="49" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>27</v>
       </c>
@@ -2096,7 +2227,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>3</v>
@@ -2128,7 +2259,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="49" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
         <v>28</v>
       </c>
@@ -2162,7 +2293,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
         <v>37</v>
       </c>
@@ -2187,8 +2318,12 @@
       <c r="H31" s="63">
         <v>0</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="I31" s="11">
+        <v>41635</v>
+      </c>
+      <c r="J31" s="68" t="s">
+        <v>128</v>
+      </c>
       <c r="K31" s="1" t="s">
         <v>50</v>
       </c>
@@ -2196,9 +2331,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="43.15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
         <v>38</v>
       </c>
@@ -2234,7 +2371,7 @@
       </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="43.15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
         <v>39</v>
       </c>
@@ -2270,7 +2407,7 @@
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" s="49" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="49" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
         <v>56</v>
       </c>
@@ -2306,7 +2443,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="49" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
         <v>47</v>
       </c>
@@ -2546,7 +2683,20 @@
       <c r="L99" s="66"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G7"/>
+  <autoFilter ref="A7:M35">
+    <filterColumn colId="8">
+      <filters>
+        <dateGroupItem year="2013" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters>
+        <filter val="Critical"/>
+        <filter val="High"/>
+        <filter val="Normal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
@@ -2558,7 +2708,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,7 +2789,7 @@
       </c>
       <c r="B9" s="24">
         <f ca="1">DAYS360(B1, NOW())*B8</f>
-        <v>168.1046511627907</v>
+        <v>190.15116279069767</v>
       </c>
       <c r="E9" s="15"/>
     </row>
@@ -2649,7 +2799,7 @@
       </c>
       <c r="B10" s="27">
         <f ca="1">B9/B4</f>
-        <v>0.70930232558139539</v>
+        <v>0.80232558139534882</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2659,7 +2809,7 @@
       </c>
       <c r="B12" s="22">
         <f ca="1">(B6-B9)/B8</f>
-        <v>-12.556962025316457</v>
+        <v>-20.556962025316455</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2668,7 +2818,103 @@
       </c>
       <c r="B13" s="25">
         <f ca="1">B12/5</f>
-        <v>-2.5113924050632912</v>
+        <v>-4.1113924050632908</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
